--- a/data/results/det-avg.xlsx
+++ b/data/results/det-avg.xlsx
@@ -11,83 +11,80 @@
     <sheet name="Acrocephalus dumetorum" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Aegithina tiphia" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Alcippe poioicephala" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Artamus fuscus" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Centropus sinensis" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Chalcophaps indica" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Chrysocolaptes guttacristatus" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Cinnyris asiaticus" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Cinnyris lotenius" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Columba livia" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Copsychus fulicatus" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Copsychus saularis" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Corvus macrorhynchos" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Corvus splendens" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Culicicapa ceylonensis" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Cyornis tickelliae" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Cypsiurus balasiensis" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Dendrocitta leucogastra" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Dendrocitta vagabunda" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Dicrurus aeneus" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Dicrurus leucophaeus" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Dicrurus macrocercus" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Dicrurus paradiseus" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Dinopium benghalense" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Eudynamys scolopaceus" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Ficedula nigrorufa" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Geokichla citrina" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Gracula indica" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Halcyon smyrnensis" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Hierococcyx varius" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Hypothymis azurea" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Hypsipetes ganeesa" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Iole indica" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Irena puella" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Lanius cristatus" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Lanius schach" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Leptocoma minima" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Leptocoma zeylonica" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Loriculus vernalis" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Merops leschenaulti" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Merops orientalis" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Montecincla fairbanki" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Motacilla cinerea" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Motacilla maderaspatensis" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Muscicapa dauurica" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Myophonus horsfieldii" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Ocyceros griseus" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Oriolus kundoo" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Oriolus xanthornus" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Sheet 52" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Parus cinereus" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Passer domesticus" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Pavo cristatus" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Pellorneum ruficeps" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Pericrocotus cinnamomeus" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Pericrocotus flammeus" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="Picus xanthopygaeus" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Pomatorhinus horsfieldii" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="Prinia hodgsonii" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Prinia socialis" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="Psilopogon haemacephalus" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="Psilopogon malabaricus" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="Psilopogon viridis" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="Psittacula columboides" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="Psittacula cyanocephala" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="Psittacula krameri" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="Pycnonotus cafer" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="Sheet 70" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet name="Pycnonotus luteolus" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet name="Rubigula gularis" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet name="Saxicola caprata" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet name="Sitta frontalis" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet name="Streptopelia chinensis" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet name="Terpsiphone paradisi" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet name="Treron affinis" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet name="Turdoides subrufa" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet name="Turdus simillimus" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet name="Upupa epops" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet name="Yungipicus nanus" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet name="Zosterops palpebrosus" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet name="Centropus sinensis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chalcophaps indica" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Chrysocolaptes guttacristatus" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Cinnyris asiaticus" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Cinnyris lotenius" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Columba livia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Copsychus fulicatus" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Copsychus saularis" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Corvus macrorhynchos" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Corvus splendens" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Culicicapa ceylonensis" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Cyornis tickelliae" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Dendrocitta leucogastra" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Dendrocitta vagabunda" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Dicrurus aeneus" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Dicrurus leucophaeus" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Dicrurus macrocercus" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Dicrurus paradiseus" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Dinopium benghalense" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Eudynamys scolopaceus" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Ficedula nigrorufa" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Geokichla citrina" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Gracula indica" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Halcyon smyrnensis" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Hierococcyx varius" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Hypothymis azurea" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Hypsipetes ganeesa" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Iole indica" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Irena puella" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Lanius cristatus" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Lanius schach" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Leptocoma minima" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Leptocoma zeylonica" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Loriculus vernalis" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Merops leschenaulti" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Merops orientalis" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Montecincla fairbanki" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Motacilla cinerea" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Motacilla maderaspatensis" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Muscicapa dauurica" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Myophonus horsfieldii" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Ocyceros griseus" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Oriolus kundoo" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Oriolus xanthornus" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Orthotomus sutorius" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Parus cinereus" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Passer domesticus" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Pavo cristatus" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Pellorneum ruficeps" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Pericrocotus cinnamomeus" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Pericrocotus flammeus" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Picus xanthopygaeus" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Pomatorhinus horsfieldii" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Prinia hodgsonii" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Prinia socialis" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Psilopogon haemacephalus" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Psilopogon malabaricus" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Psilopogon viridis" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Psittacula columboides" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="Psittacula cyanocephala" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="Psittacula krameri" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="Pycnonotus cafer" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="Pycnonotus jocosus" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="Pycnonotus luteolus" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="Rubigula gularis" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet name="Saxicola caprata" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet name="Sitta frontalis" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet name="Streptopelia chinensis" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet name="Terpsiphone paradisi" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet name="Treron affinis" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet name="Turdus simillimus" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet name="Upupa epops" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet name="Yungipicus nanus" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet name="Zosterops palpebrosus" sheetId="79" state="visible" r:id="rId79"/>
   </sheets>
 </workbook>
 </file>
@@ -96,9 +93,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">unmarked::coef(top_det[[i]][[1]])</t>
   </si>
   <si>
     <t xml:space="preserve">psi(Int)</t>
@@ -116,19 +110,22 @@
     <t xml:space="preserve">p(expertise)</t>
   </si>
   <si>
-    <t xml:space="preserve">p(julian_date)</t>
-  </si>
-  <si>
     <t xml:space="preserve">p(min_obs_started)</t>
   </si>
   <si>
     <t xml:space="preserve">p(number_observers)</t>
   </si>
   <si>
+    <t xml:space="preserve">p(julian_date)</t>
+  </si>
+  <si>
     <t xml:space="preserve">full</t>
   </si>
   <si>
     <t xml:space="preserve">subset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unmarked::coef(top_det[[i]][[1]])</t>
   </si>
 </sst>
 </file>
@@ -467,69 +464,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.318928541412113</v>
+        <v>0.184033315122091</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.80724713449408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69156701758382</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.95538831774659</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.20236016880672</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.44529379957248</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.16995231360404</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0640880254472782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.32149471063038</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.82158410109219</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-2.48430808321054</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.25660696370769</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.612594386600444</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.77714187666364</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-3.32061215268656</v>
+        <v>0.184033315122091</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.80724713449408</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69156701758382</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.95538831774659</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.20236016880672</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.44529379957248</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-3.16995231360404</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.194261792654493</v>
       </c>
     </row>
   </sheetData>
@@ -551,19 +563,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -572,65 +584,65 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.322146098381647</v>
+        <v>-1.56314968689457</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.52465492617168</v>
+        <v>-1.82291044730093</v>
       </c>
       <c r="D2" t="n">
-        <v>4.61562698606794</v>
+        <v>4.36258448440021</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.5400793076833</v>
+        <v>-0.30935430702366</v>
       </c>
       <c r="F2" t="n">
-        <v>2.31584332266607</v>
+        <v>-0.231532579703746</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.248895190013353</v>
+        <v>0.338182372018496</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.334189019602146</v>
+        <v>-0.0618679607799666</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.159936494819202</v>
+        <v>-0.0174512486170211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.322146098381647</v>
+        <v>-1.56314968689457</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.52465492617168</v>
+        <v>-1.82291044730093</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61562698606794</v>
+        <v>4.36258448440022</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.5400793076833</v>
+        <v>-0.650743661057132</v>
       </c>
       <c r="F3" t="n">
-        <v>2.31584332266607</v>
+        <v>-0.491156242758521</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.406631844804039</v>
+        <v>0.734699424707078</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.506027267952516</v>
+        <v>-0.248506738301742</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.440869589402287</v>
+        <v>-0.0803770096416971</v>
       </c>
     </row>
   </sheetData>
@@ -652,86 +664,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.32729683686841</v>
+        <v>-1.01809924024736</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.65178063367267</v>
+        <v>-0.712045197431883</v>
       </c>
       <c r="D2" t="n">
-        <v>3.30009489727696</v>
+        <v>3.46111608779784</v>
       </c>
       <c r="E2" t="n">
-        <v>2.33822904996647</v>
+        <v>-1.38482105953217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.111098935773395</v>
+        <v>0.329922667740581</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0387168023718213</v>
+        <v>1.93382405458168</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0207475902358993</v>
+        <v>-4.50279375070512</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.011519816149383</v>
+        <v>-0.0891446881866993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.32729683686841</v>
+        <v>-1.01809924024736</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.65178063367267</v>
+        <v>-0.712045197431883</v>
       </c>
       <c r="D3" t="n">
-        <v>3.30009489727696</v>
+        <v>3.46111608779784</v>
       </c>
       <c r="E3" t="n">
-        <v>2.33822904996647</v>
+        <v>-1.38482105953217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.533215639360103</v>
+        <v>0.539643673592925</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.254551956572325</v>
+        <v>1.93382405458168</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.14440367672541</v>
+        <v>-4.50279375070512</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0854714611091249</v>
+        <v>-0.304045887712217</v>
       </c>
     </row>
   </sheetData>
@@ -753,86 +765,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.911223863423285</v>
+        <v>-1.9648739020422</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.563204601487749</v>
+        <v>-3.63118268371527</v>
       </c>
       <c r="D2" t="n">
-        <v>3.52570866286107</v>
+        <v>6.26905938212383</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.8664016048407</v>
+        <v>1.8915211565778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.248021236614137</v>
+        <v>2.00521462061058</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79189287773786</v>
+        <v>-2.93568200042031</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.42467677951853</v>
+        <v>-0.094941547329907</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.363743981091544</v>
+        <v>-0.0789662400087381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.911223863423285</v>
+        <v>-1.9648739020422</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.563204601487749</v>
+        <v>-3.63118268371527</v>
       </c>
       <c r="D3" t="n">
-        <v>3.52570866286107</v>
+        <v>6.26905938212383</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.8664016048407</v>
+        <v>2.11426281927595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.482403643374222</v>
+        <v>2.00521462061058</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79189287773786</v>
+        <v>-2.93568200042031</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.42467677951853</v>
+        <v>-0.342167970706942</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.885219245404402</v>
+        <v>-0.304638210747897</v>
       </c>
     </row>
   </sheetData>
@@ -854,86 +866,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.95232684719618</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.90441065056795</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.39058967745935</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.42500413818162</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.85562951237742</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-2.41493103908271</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.306789161383171</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0135747115362753</v>
+        <v>0.431701775657236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.95232684719618</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.90441065056795</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.39058967745935</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.42500413818162</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.85562951237742</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-2.41493103908271</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.771870487177578</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0835909379538763</v>
+        <v>-2.74780661327345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.22536262576247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.2881350388379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.60658874684204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.504162233380753</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.75959410084827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.94902652362932</v>
       </c>
     </row>
   </sheetData>
@@ -957,69 +954,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626993875274155</v>
+        <v>0.647556955704631</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.711724597127066</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.44140734969955</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.33746748706762</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.20838177346279</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.39409000959936</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2.12311663390196</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0116711831051977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.52227805206568</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.27013784179733</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-1.68514460413032</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.30219166764264</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.483668228909131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.08682874725319</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-2.35125223211004</v>
+        <v>0.647556955704631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.711724597127066</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.44140734969955</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.33746748706762</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.20838177346279</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.39409000959936</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.12311663390196</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0428076135204433</v>
       </c>
     </row>
   </sheetData>
@@ -1041,86 +1053,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.853301883572454</v>
+        <v>-0.281891813132438</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.184708749777916</v>
+        <v>-0.145436588474056</v>
       </c>
       <c r="D2" t="n">
-        <v>2.03260269386935</v>
+        <v>2.68634807703901</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.52299277192424</v>
+        <v>-0.949555254587602</v>
       </c>
       <c r="F2" t="n">
-        <v>1.44979667771639</v>
+        <v>0.197412286587785</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61342251593858</v>
+        <v>1.64816083670374</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.20039888353322</v>
+        <v>-3.10051092318462</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.124073304772507</v>
+        <v>-0.00578438989582157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.853301883572454</v>
+        <v>-0.281891813132438</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.184708749777916</v>
+        <v>-0.145436588474056</v>
       </c>
       <c r="D3" t="n">
-        <v>2.03260269386935</v>
+        <v>2.68634807703901</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.52299277192424</v>
+        <v>-0.949555254587602</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44979667771639</v>
+        <v>0.378413963593246</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61342251593858</v>
+        <v>1.64816083670374</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.20039888353322</v>
+        <v>-3.10051092318462</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.26174738213817</v>
+        <v>-0.021553707800394</v>
       </c>
     </row>
   </sheetData>
@@ -1142,86 +1154,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.168142787901806</v>
+        <v>-1.6213584647457</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.416365549630416</v>
+        <v>0.206137865838372</v>
       </c>
       <c r="D2" t="n">
-        <v>2.81110769873006</v>
+        <v>1.54361814216511</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.32318926406637</v>
+        <v>1.69544056082818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.604595786769355</v>
+        <v>-0.778349095891012</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83025394437708</v>
+        <v>0.284381641435141</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.77451088575109</v>
+        <v>-0.0954527475334076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0264372108750701</v>
+        <v>-0.0199442773730201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.168142787901806</v>
+        <v>-1.6213584647457</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.416365549630416</v>
+        <v>0.206137865838372</v>
       </c>
       <c r="D3" t="n">
-        <v>2.81110769873006</v>
+        <v>1.65853949930667</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.32318926406637</v>
+        <v>1.69544056082818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.869952412201275</v>
+        <v>-1.16872384746341</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83025394437708</v>
+        <v>0.740296915382736</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.77451088575109</v>
+        <v>-0.35451194595944</v>
       </c>
       <c r="I3" t="n">
-        <v>0.129746057916885</v>
+        <v>-0.0926278589928606</v>
       </c>
     </row>
   </sheetData>
@@ -1243,77 +1255,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.57022251331191</v>
+        <v>-1.77076943199819</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5348089489499</v>
+        <v>-1.31888302802699</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.53397934391031</v>
+        <v>3.36690383584582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.590147040267112</v>
+        <v>-0.627703453269838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.188866385419095</v>
+        <v>1.35004304064743</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0982967352155696</v>
+        <v>-1.07945178166729</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0147184882260272</v>
+        <v>0.164954076774968</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0738021629519607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.57022251331191</v>
+        <v>-1.77076943199819</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5348089489499</v>
+        <v>-1.31888302802699</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.53397934391031</v>
+        <v>3.36690383584582</v>
       </c>
       <c r="E3" t="n">
-        <v>0.827216629577064</v>
+        <v>-0.858301019267481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.535102949678682</v>
+        <v>1.35004304064743</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.424501177957449</v>
+        <v>-1.22690724279103</v>
       </c>
       <c r="H3" t="n">
-        <v>0.162101345106578</v>
+        <v>0.47615714411313</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.321366942058534</v>
       </c>
     </row>
   </sheetData>
@@ -1335,86 +1356,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.69882683978667</v>
+        <v>-0.918556931081764</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.730159577700973</v>
+        <v>-1.9426122506883</v>
       </c>
       <c r="D2" t="n">
-        <v>3.92606976783413</v>
+        <v>3.16066471851683</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.28498904698698</v>
+        <v>0.547165689030551</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.41544136882947</v>
+        <v>-1.30480591499622</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45431436880299</v>
+        <v>1.66661995324223</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.59170720006338</v>
+        <v>0.228254662563331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0883956135928246</v>
+        <v>-0.0256779281737296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.69882683978667</v>
+        <v>-0.918556931081764</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.730159577700973</v>
+        <v>-1.9426122506883</v>
       </c>
       <c r="D3" t="n">
-        <v>3.92606976783413</v>
+        <v>3.16066471851683</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.28498904698698</v>
+        <v>0.656778367209413</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.41544136882947</v>
+        <v>-1.30480591499622</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45431436880299</v>
+        <v>1.66661995324223</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.59170720006338</v>
+        <v>0.625303821870001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.286092409889344</v>
+        <v>-0.11085923410511</v>
       </c>
     </row>
   </sheetData>
@@ -1436,25 +1457,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1462,60 +1483,60 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.91042358224317</v>
+        <v>-0.417835938578026</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.190760732169884</v>
+        <v>-1.96380894975993</v>
       </c>
       <c r="D2" t="n">
-        <v>2.41125097555102</v>
+        <v>4.97185404838558</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.488629765722543</v>
+        <v>0.367023486694148</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.90932075346644</v>
+        <v>-0.855573648465379</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.440714248987547</v>
+        <v>0.360214078166267</v>
       </c>
       <c r="H2" t="n">
-        <v>0.045998477993088</v>
+        <v>1.18443329003149</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0206161124337397</v>
+        <v>-1.01219126508089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.91042358224317</v>
+        <v>-0.417835938578026</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.190760732169884</v>
+        <v>-1.96380894975993</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41125097555102</v>
+        <v>4.97185404838558</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.734097289360056</v>
+        <v>0.482788977727544</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.90932075346644</v>
+        <v>-1.09556105334189</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.31292105470209</v>
+        <v>0.505772230320493</v>
       </c>
       <c r="H3" t="n">
-        <v>0.37425066794896</v>
+        <v>1.18443329003149</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.204997510375817</v>
+        <v>-1.01219126508089</v>
       </c>
     </row>
   </sheetData>
@@ -1537,86 +1558,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.42091841423138</v>
+        <v>-0.46472371391661</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.32918758982631</v>
+        <v>-1.1220865439328</v>
       </c>
       <c r="D2" t="n">
-        <v>3.36495747395455</v>
+        <v>3.24737895799773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.355132673661341</v>
+        <v>0.292578467387126</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73895947549338</v>
+        <v>1.75464065738093</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.17303328104625</v>
+        <v>-1.97240721828139</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0455409835033798</v>
+        <v>-0.0278270076059711</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0663428289523684</v>
+        <v>-0.0038876512240038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.42091841423138</v>
+        <v>-0.46472371391661</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.32918758982631</v>
+        <v>-1.1220865439328</v>
       </c>
       <c r="D3" t="n">
-        <v>3.36495747395455</v>
+        <v>3.24737895799773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.452171612444743</v>
+        <v>0.447830121659125</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73895947549338</v>
+        <v>1.75464065738093</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.17303328104625</v>
+        <v>-1.97240721828139</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.216342553155324</v>
+        <v>-0.10991669454245</v>
       </c>
       <c r="I3" t="n">
-        <v>0.36700958436932</v>
+        <v>-0.0156235141690761</v>
       </c>
     </row>
   </sheetData>
@@ -1638,77 +1659,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.734794649869393</v>
+        <v>-0.559085242092061</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.94166944231541</v>
+        <v>-2.95905601616023</v>
       </c>
       <c r="D2" t="n">
-        <v>3.06358048299814</v>
+        <v>3.39071750552185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.729355673636619</v>
+        <v>1.16887704408934</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.33548917800132</v>
+        <v>1.38345205849504</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77109917241437</v>
+        <v>1.71986833599597</v>
       </c>
       <c r="H2" t="n">
-        <v>0.041173105516718</v>
+        <v>-0.117390535103395</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.026987634818092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.734794649869393</v>
+        <v>-0.559085242092061</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.94166944231541</v>
+        <v>-2.95905601616023</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06358048299814</v>
+        <v>3.39071750552185</v>
       </c>
       <c r="E3" t="n">
-        <v>0.729355673636619</v>
+        <v>1.16887704408934</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.33548917800132</v>
+        <v>1.38345205849504</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77109917241437</v>
+        <v>1.71986833599597</v>
       </c>
       <c r="H3" t="n">
-        <v>0.145088639773854</v>
+        <v>-0.303532658682912</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0974006415213408</v>
       </c>
     </row>
   </sheetData>
@@ -1730,86 +1760,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.312524575443921</v>
+        <v>-0.450632968351701</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.56598307492548</v>
+        <v>-3.15037830919957</v>
       </c>
       <c r="D2" t="n">
-        <v>4.32793780283978</v>
+        <v>3.30405165189052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.549234287601274</v>
+        <v>-0.719291503064263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.867901949604428</v>
+        <v>4.62495544446034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.297808703276942</v>
+        <v>0.753119863406463</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2094288183866</v>
+        <v>-1.21670774419083</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.44269783440165</v>
+        <v>-0.00453614388890416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.312524575443921</v>
+        <v>-0.450632968351701</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.56598307492548</v>
+        <v>-3.15037830919957</v>
       </c>
       <c r="D3" t="n">
-        <v>4.32793780283978</v>
+        <v>3.30405165189052</v>
       </c>
       <c r="E3" t="n">
-        <v>0.549234287601274</v>
+        <v>-0.719291503064263</v>
       </c>
       <c r="F3" t="n">
-        <v>1.07776954472498</v>
+        <v>4.62495544446034</v>
       </c>
       <c r="G3" t="n">
-        <v>0.443464428370719</v>
+        <v>0.753119863406463</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2094288183866</v>
+        <v>-1.21670774419083</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.44269783440165</v>
+        <v>-0.016900198232964</v>
       </c>
     </row>
   </sheetData>
@@ -1831,86 +1861,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.452080081887163</v>
+        <v>-0.929748389642794</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.76339220479245</v>
+        <v>-1.67639783610869</v>
       </c>
       <c r="D2" t="n">
-        <v>3.17340581505302</v>
+        <v>3.99388652037363</v>
       </c>
       <c r="E2" t="n">
-        <v>1.13693067680077</v>
+        <v>0.400695628058442</v>
       </c>
       <c r="F2" t="n">
-        <v>1.69465486883503</v>
+        <v>0.874036701099961</v>
       </c>
       <c r="G2" t="n">
-        <v>1.31438866194652</v>
+        <v>-1.27500074275089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0216820439024858</v>
+        <v>0.0598511755927473</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0124043933966828</v>
+        <v>0.103020184987809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.452080081887163</v>
+        <v>-0.929748389642794</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.76339220479245</v>
+        <v>-1.67639783610869</v>
       </c>
       <c r="D3" t="n">
-        <v>3.17340581505302</v>
+        <v>3.99388652037363</v>
       </c>
       <c r="E3" t="n">
-        <v>1.13693067680077</v>
+        <v>0.551298363315053</v>
       </c>
       <c r="F3" t="n">
-        <v>1.69465486883503</v>
+        <v>0.874036701099961</v>
       </c>
       <c r="G3" t="n">
-        <v>1.31438866194652</v>
+        <v>-1.27500074275089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0995540257388726</v>
+        <v>0.199769088099866</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0583941152729526</v>
+        <v>0.353450583221235</v>
       </c>
     </row>
   </sheetData>
@@ -1932,86 +1962,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.341812752159096</v>
+        <v>0.23528416756414</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.55862992080029</v>
+        <v>-2.48124021207954</v>
       </c>
       <c r="D2" t="n">
-        <v>3.60166857076366</v>
+        <v>3.13351794639742</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.09402754451419</v>
+        <v>0.613523156489204</v>
       </c>
       <c r="F2" t="n">
-        <v>4.37915723662265</v>
+        <v>2.09735198571985</v>
       </c>
       <c r="G2" t="n">
-        <v>0.703441383344811</v>
+        <v>1.28250256338756</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.870063695753768</v>
+        <v>0.981081143834818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0379981993273477</v>
+        <v>-0.0385863404290235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.341812752159096</v>
+        <v>0.23528416756414</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.55862992080029</v>
+        <v>-2.48124021207954</v>
       </c>
       <c r="D3" t="n">
-        <v>3.60166857076366</v>
+        <v>3.13351794639742</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.09402754451419</v>
+        <v>0.613523156489204</v>
       </c>
       <c r="F3" t="n">
-        <v>4.37915723662265</v>
+        <v>2.09735198571985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.703441383344811</v>
+        <v>1.28250256338756</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.870063695753768</v>
+        <v>0.981081143834818</v>
       </c>
       <c r="I3" t="n">
-        <v>0.128732980191279</v>
+        <v>-0.127081716278193</v>
       </c>
     </row>
   </sheetData>
@@ -2035,61 +2065,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.863985897575519</v>
+        <v>-0.269622535293687</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.59833757031983</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.56818293588865</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.514959114195172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.73527117439498</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.80052016678284</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.327552784892343</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00286158093618005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.32476431579046</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.81753631067818</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.63597387252724</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.81228597060981</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.771419622420446</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.56625408348223</v>
+        <v>-0.269622535293687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.59833757031983</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.56818293588865</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.558689641217971</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.73527117439498</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.80052016678284</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.547778298225698</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0115778419241481</v>
       </c>
     </row>
   </sheetData>
@@ -2113,61 +2166,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400121574971807</v>
+        <v>-1.1630055499027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.10200784143604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.85699478507639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.581631089609209</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.862795260132263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.08721998900129</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.34282156631928</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.4057744458845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.44452762868021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.19479498978039</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.572289247028797</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.29016407019211</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.37710377676813</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.11543685030046</v>
+        <v>-1.16300554990271</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.10200784143604</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.85699478507639</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.7027616088494</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.26769713727127</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.08721998900129</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.34282156631928</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.4057744458845</v>
       </c>
     </row>
   </sheetData>
@@ -2191,61 +2267,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.164029074012285</v>
+        <v>-1.81021001139456</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.153085215831944</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44803745067921</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.717517457083453</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.0375650049688979</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.010830973872066</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.00709792681990728</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.00600368432876077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.5329028644085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.3286461752991</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.568838316391142</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.47486437118935</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.96098286657749</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.780876089775416</v>
+        <v>-1.81021001139456</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.153085215831944</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44803745067921</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.0980211626713</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.168003048451431</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.0512865926336435</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0387532469264929</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0327872146287113</v>
       </c>
     </row>
   </sheetData>
@@ -2267,86 +2366,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.0630335059336</v>
+        <v>-1.12372699946942</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.37569117602253</v>
+        <v>-3.16364390573486</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08643147260042</v>
+        <v>1.23743783359308</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.888072892737119</v>
+        <v>5.07958562798791</v>
       </c>
       <c r="F2" t="n">
-        <v>1.80960595294392</v>
+        <v>-1.0389130820503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.595089637581107</v>
+        <v>1.1963239006882</v>
       </c>
       <c r="H2" t="n">
-        <v>3.50848410078496</v>
+        <v>-0.0966980145942987</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.91687402108185</v>
+        <v>0.111042613031911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.0630335059336</v>
+        <v>-1.12372699946942</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.37569117602253</v>
+        <v>-3.16364390573486</v>
       </c>
       <c r="D3" t="n">
-        <v>4.08643147260042</v>
+        <v>1.23743783359308</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.888072892737119</v>
+        <v>5.07958562798791</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80960595294392</v>
+        <v>-1.0389130820503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.826373578941348</v>
+        <v>1.1963239006882</v>
       </c>
       <c r="H3" t="n">
-        <v>3.50848410078496</v>
+        <v>-0.281617229566852</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.91687402108185</v>
+        <v>0.35344066183307</v>
       </c>
     </row>
   </sheetData>
@@ -2368,86 +2467,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.71506089487756</v>
+        <v>0.0837474051193126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.606610112743517</v>
+        <v>-2.57906563724372</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22606492714298</v>
+        <v>2.97262569319398</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.09010536287008</v>
+        <v>3.86302371797775</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.819924664131061</v>
+        <v>0.262783528234102</v>
       </c>
       <c r="G2" t="n">
-        <v>0.204371642279823</v>
+        <v>0.989457811169135</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00918962028194118</v>
+        <v>0.142645060254852</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00792095429652888</v>
+        <v>-0.0148305477174325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.71506089487756</v>
+        <v>0.0837474051193126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.606610112743517</v>
+        <v>-2.57906563724372</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22606492714298</v>
+        <v>2.97262569319398</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.09010536287008</v>
+        <v>3.86302371797775</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.18923802871788</v>
+        <v>0.403625309623005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.607467426151969</v>
+        <v>0.989457811169135</v>
       </c>
       <c r="H3" t="n">
-        <v>0.088539509819102</v>
+        <v>0.305644327587306</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0768499543793814</v>
+        <v>-0.053830445891683</v>
       </c>
     </row>
   </sheetData>
@@ -2471,61 +2570,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.12321387175171</v>
+        <v>-0.0969114085052102</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.48960117494287</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98295791887055</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.79256110315537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.190514682263146</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.73465887989934</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.082476164989674</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.11261781681576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.45580221277345</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.56553659545546</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.835623652753906</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.49979197235727</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.1887178025718</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.08541840219774</v>
+        <v>-0.0969114085052102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.48960117494288</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98295791887055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.79256110315537</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.345904504985978</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.73465887989934</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.213390665472383</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.300438988520364</v>
       </c>
     </row>
   </sheetData>
@@ -2547,71 +2669,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.27400740741896</v>
+        <v>1.06717051156187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.43857915300174</v>
+        <v>-3.0006474019394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.13222434758977</v>
+        <v>2.15179189941243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.57759305389155</v>
+        <v>-1.22651232952469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.563815683059</v>
+        <v>6.07812768992589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.847004137301721</v>
+        <v>-0.845934490783887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.28113246420947</v>
+        <v>1.00457083717651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.687340438802019</v>
+        <v>-0.683975899018442</v>
       </c>
     </row>
   </sheetData>
@@ -2633,86 +2755,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240122435369485</v>
+        <v>-0.985344808402212</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.41158112664603</v>
+        <v>-2.61039277766752</v>
       </c>
       <c r="D2" t="n">
-        <v>2.90057587616948</v>
+        <v>1.98414074516249</v>
       </c>
       <c r="E2" t="n">
-        <v>4.13522896670959</v>
+        <v>1.12384844746641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.237975186573827</v>
+        <v>-0.445835327249752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.553206685064277</v>
+        <v>2.91736295925435</v>
       </c>
       <c r="H2" t="n">
-        <v>1.34703918036881</v>
+        <v>-0.0215406763031959</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0747408952488005</v>
+        <v>-0.0233307015498861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240122435369485</v>
+        <v>-0.985344808402212</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.41158112664603</v>
+        <v>-2.61039277766752</v>
       </c>
       <c r="D3" t="n">
-        <v>2.90057587616948</v>
+        <v>1.98414074516249</v>
       </c>
       <c r="E3" t="n">
-        <v>4.13522896670959</v>
+        <v>1.28129132724546</v>
       </c>
       <c r="F3" t="n">
-        <v>0.394918253078917</v>
+        <v>-0.675574363338616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.553206685064277</v>
+        <v>2.91736295925435</v>
       </c>
       <c r="H3" t="n">
-        <v>1.34703918036881</v>
+        <v>-0.0945321303782753</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.207937260996497</v>
+        <v>-0.104017250420747</v>
       </c>
     </row>
   </sheetData>
@@ -2734,86 +2856,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0296511817310992</v>
+        <v>-1.73420639563913</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.45787745643451</v>
+        <v>-1.64347954099287</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2955633847831</v>
+        <v>3.81326689593849</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.677758521679518</v>
+        <v>-1.52145456676525</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95397721037247</v>
+        <v>1.64035442982171</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98008627424833</v>
+        <v>0.152311289950695</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.203609036964204</v>
+        <v>0.0610428422720005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.132154378667429</v>
+        <v>0.0493069240344857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0296511817310992</v>
+        <v>-1.73420639563913</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.45787745643451</v>
+        <v>-1.64347954099287</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2955633847831</v>
+        <v>3.81326689593849</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.677758521679518</v>
+        <v>-1.52145456676525</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95397721037247</v>
+        <v>1.72664496923365</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98008627424833</v>
+        <v>0.561378681108794</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.439770215114584</v>
+        <v>0.230205605773403</v>
       </c>
       <c r="I3" t="n">
-        <v>0.294087262273495</v>
+        <v>0.193276499112275</v>
       </c>
     </row>
   </sheetData>
@@ -2835,77 +2957,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.962875680206124</v>
+        <v>-0.99711526814119</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.05876264909847</v>
+        <v>0.640612786290484</v>
       </c>
       <c r="D2" t="n">
-        <v>1.85845637532487</v>
+        <v>-0.975677980063789</v>
       </c>
       <c r="E2" t="n">
-        <v>2.54465726755022</v>
+        <v>2.38967338767712</v>
       </c>
       <c r="F2" t="n">
-        <v>3.13808027618696</v>
+        <v>-1.20833305391193</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.280597761031634</v>
+        <v>0.288968769228571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0394701192401108</v>
+        <v>-0.172016342867902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.184780056286645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.962875680206124</v>
+        <v>-0.99711526814119</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.05876264909847</v>
+        <v>0.640612786290484</v>
       </c>
       <c r="D3" t="n">
-        <v>1.85845637532487</v>
+        <v>-0.975677980063789</v>
       </c>
       <c r="E3" t="n">
-        <v>2.54465726755022</v>
+        <v>2.38967338767712</v>
       </c>
       <c r="F3" t="n">
-        <v>3.13808027618696</v>
+        <v>-1.20833305391193</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.569609999717511</v>
+        <v>0.652179771522501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.141679732412638</v>
+        <v>-0.399703807305469</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.464329948794961</v>
       </c>
     </row>
   </sheetData>
@@ -2927,86 +3058,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.67465725184664</v>
+        <v>0.219084654714096</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.54119335687436</v>
+        <v>-2.70876040994954</v>
       </c>
       <c r="D2" t="n">
-        <v>4.33793283910021</v>
+        <v>2.02633562999634</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.5770248451237</v>
+        <v>5.45419459619825</v>
       </c>
       <c r="F2" t="n">
-        <v>0.488138769004681</v>
+        <v>-0.856090171776523</v>
       </c>
       <c r="G2" t="n">
-        <v>0.154212688902218</v>
+        <v>-1.0094586891081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0164077964421105</v>
+        <v>1.66634352061808</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0236764623689511</v>
+        <v>-0.00105502926011541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.67465725184664</v>
+        <v>0.219084654714096</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.54119335687436</v>
+        <v>-2.70876040994954</v>
       </c>
       <c r="D3" t="n">
-        <v>4.33793283910021</v>
+        <v>2.02633562999634</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.5770248451237</v>
+        <v>5.45419459619825</v>
       </c>
       <c r="F3" t="n">
-        <v>1.07770555458551</v>
+        <v>-0.856090171776523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.696335921377476</v>
+        <v>-1.0094586891081</v>
       </c>
       <c r="H3" t="n">
-        <v>0.169330221157021</v>
+        <v>1.66634352061808</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.126070094299728</v>
+        <v>-0.00393668320517543</v>
       </c>
     </row>
   </sheetData>
@@ -3028,86 +3159,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.00129446015417</v>
+        <v>-0.593244287097174</v>
       </c>
       <c r="C2" t="n">
-        <v>1.07799292883366</v>
+        <v>-3.5394866085854</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.36686227391209</v>
+        <v>2.83541770886816</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.189350335561051</v>
+        <v>5.16224705978398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.216407624104646</v>
+        <v>-1.15880647098769</v>
       </c>
       <c r="G2" t="n">
-        <v>0.204358002201399</v>
+        <v>0.836066160881322</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0690554204582598</v>
+        <v>-0.0409815187619967</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0182128588084977</v>
+        <v>0.011432410911089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.00129446015417</v>
+        <v>-0.593244287097174</v>
       </c>
       <c r="C3" t="n">
-        <v>1.07799292883366</v>
+        <v>-3.5394866085854</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.36686227391209</v>
+        <v>2.83541770886816</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.552674240016458</v>
+        <v>5.16224705978398</v>
       </c>
       <c r="F3" t="n">
-        <v>0.700113954846568</v>
+        <v>-1.15880647098769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.759878426442062</v>
+        <v>0.92164252156933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.332254284275846</v>
+        <v>-0.15363943770433</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.257958242604283</v>
+        <v>0.0465535164979376</v>
       </c>
     </row>
   </sheetData>
@@ -3129,86 +3260,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.380820498600192</v>
+        <v>-0.756480426312789</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.34898810107483</v>
+        <v>-4.23775042611006</v>
       </c>
       <c r="D2" t="n">
-        <v>1.78969220382972</v>
+        <v>2.36252279519908</v>
       </c>
       <c r="E2" t="n">
-        <v>5.9372565411461</v>
+        <v>-1.30286701540685</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.627898719829677</v>
+        <v>5.50408173949546</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.74605244821912</v>
+        <v>1.69130047890925</v>
       </c>
       <c r="H2" t="n">
-        <v>1.84907942837584</v>
+        <v>-0.091493604614478</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.115506120989544</v>
+        <v>0.0808531448541664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380820498600192</v>
+        <v>-0.756480426312789</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.34898810107483</v>
+        <v>-4.23775042611006</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78969220382972</v>
+        <v>2.36252279519908</v>
       </c>
       <c r="E3" t="n">
-        <v>5.9372565411461</v>
+        <v>-1.30286701540685</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.627898719829677</v>
+        <v>5.50408173949546</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.74605244821912</v>
+        <v>1.69130047890924</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84907942837584</v>
+        <v>-0.254502531002304</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.266253376948537</v>
+        <v>0.262009515279531</v>
       </c>
     </row>
   </sheetData>
@@ -3230,86 +3361,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.409916899487711</v>
+        <v>-1.10554270564419</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.04509821459009</v>
+        <v>-1.82772952809421</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63228223015364</v>
+        <v>2.91788122829611</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14204730320513</v>
+        <v>-1.25207355291996</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.775360574020898</v>
+        <v>2.24224804795453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.866169106964642</v>
+        <v>1.595980389616</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0195059873596089</v>
+        <v>-1.7533866397866</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00681537415076995</v>
+        <v>-0.0384006533298969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.409916899487711</v>
+        <v>-1.10554270564419</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.04509821459009</v>
+        <v>-1.82772952809421</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63228223015364</v>
+        <v>2.91788122829611</v>
       </c>
       <c r="E3" t="n">
-        <v>5.14204730320513</v>
+        <v>-1.25207355291996</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.775360574020898</v>
+        <v>2.24224804795453</v>
       </c>
       <c r="G3" t="n">
-        <v>0.866169106964642</v>
+        <v>1.595980389616</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0894428571815435</v>
+        <v>-1.7533866397866</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0323986275969931</v>
+        <v>-0.135002598286277</v>
       </c>
     </row>
   </sheetData>
@@ -3331,86 +3462,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.758368022110283</v>
+        <v>-0.353701504973279</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.91224467999017</v>
+        <v>-1.93904191928121</v>
       </c>
       <c r="D2" t="n">
-        <v>2.55194560209572</v>
+        <v>1.71905024860576</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.49078470804684</v>
+        <v>4.42424538536346</v>
       </c>
       <c r="F2" t="n">
-        <v>6.64152355800671</v>
+        <v>-0.781681987556405</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77542100010848</v>
+        <v>-0.89975447207162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10053522678493</v>
+        <v>1.10541885150797</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0202820988343745</v>
+        <v>-0.0815234615879199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.758368022110283</v>
+        <v>-0.353701504973279</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.91224467999017</v>
+        <v>-1.93904191928121</v>
       </c>
       <c r="D3" t="n">
-        <v>2.55194560209572</v>
+        <v>1.71905024860576</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.49078470804684</v>
+        <v>4.42424538536346</v>
       </c>
       <c r="F3" t="n">
-        <v>6.64152355800671</v>
+        <v>-0.781681987556405</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77542100010848</v>
+        <v>-0.89975447207162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.375971315413952</v>
+        <v>1.10541885150797</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0993516957378699</v>
+        <v>-0.228014785900298</v>
       </c>
     </row>
   </sheetData>
@@ -3432,86 +3563,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.09842126717</v>
+        <v>-0.468607796280064</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.30003719728397</v>
+        <v>-0.911623264783838</v>
       </c>
       <c r="D2" t="n">
-        <v>2.47642375907748</v>
+        <v>5.02783901698555</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.26868420172684</v>
+        <v>-0.856236840349618</v>
       </c>
       <c r="F2" t="n">
-        <v>1.44061779423919</v>
+        <v>-0.957115118410069</v>
       </c>
       <c r="G2" t="n">
-        <v>2.09987692154816</v>
+        <v>-0.332633963499145</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.06669150980188</v>
+        <v>0.124962487392612</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0710180135327212</v>
+        <v>0.0139552799166146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.09842126717</v>
+        <v>-0.468607796280064</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.30003719728397</v>
+        <v>-0.911623264783838</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47642375907748</v>
+        <v>5.02783901698555</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.26868420172684</v>
+        <v>-0.856236840349618</v>
       </c>
       <c r="F3" t="n">
-        <v>1.851064828639</v>
+        <v>-0.957115118410069</v>
       </c>
       <c r="G3" t="n">
-        <v>2.09987692154816</v>
+        <v>-0.59581023223472</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.06669150980188</v>
+        <v>0.382104818466626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.280869202281756</v>
+        <v>0.0513487780879058</v>
       </c>
     </row>
   </sheetData>
@@ -3533,86 +3664,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.247422657698944</v>
+        <v>0.274931383462515</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.66544827396503</v>
+        <v>-3.5883103895496</v>
       </c>
       <c r="D2" t="n">
-        <v>1.61180972410025</v>
+        <v>4.03454034314128</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25551654667289</v>
+        <v>4.85847724698508</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.584944998162415</v>
+        <v>0.268910955717593</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.422173469880327</v>
+        <v>0.937724149906561</v>
       </c>
       <c r="H2" t="n">
-        <v>1.30642080681848</v>
+        <v>0.0266436855646281</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0889001449210823</v>
+        <v>-0.0277185738439749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.247422657698944</v>
+        <v>0.274931383462515</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.66544827396503</v>
+        <v>-3.5883103895496</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61180972410025</v>
+        <v>4.03454034314128</v>
       </c>
       <c r="E3" t="n">
-        <v>4.25551654667289</v>
+        <v>4.85847724698508</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.584944998162415</v>
+        <v>0.405008262523488</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.548770084157028</v>
+        <v>0.937724149906561</v>
       </c>
       <c r="H3" t="n">
-        <v>1.30642080681848</v>
+        <v>0.099393142984774</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.286168145354088</v>
+        <v>-0.101739567654528</v>
       </c>
     </row>
   </sheetData>
@@ -3634,86 +3765,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.550086557068986</v>
+        <v>-0.495665033313712</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.99630932876659</v>
+        <v>-3.47087884354522</v>
       </c>
       <c r="D2" t="n">
-        <v>4.93838562229569</v>
+        <v>4.60281351794156</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.666664075560745</v>
+        <v>3.33340983644249</v>
       </c>
       <c r="F2" t="n">
-        <v>3.27584095619652</v>
+        <v>-0.432216404505966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.302202743694526</v>
+        <v>0.500896714051453</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0839076818160903</v>
+        <v>-0.0918964739235557</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0556219164410331</v>
+        <v>-0.0706468469612431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.550086557068986</v>
+        <v>-0.495665033313712</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.99630932876659</v>
+        <v>-3.47087884354522</v>
       </c>
       <c r="D3" t="n">
-        <v>4.93838562229569</v>
+        <v>4.60281351794156</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.666664075560745</v>
+        <v>3.33340983644249</v>
       </c>
       <c r="F3" t="n">
-        <v>3.27584095619652</v>
+        <v>-0.562381017008266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.614102006691854</v>
+        <v>0.720692597631851</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3194182624365</v>
+        <v>-0.268737502847611</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.230346686851378</v>
+        <v>-0.242161469531739</v>
       </c>
     </row>
   </sheetData>
@@ -3737,61 +3868,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.370693927128804</v>
+        <v>-0.206803504948037</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.28968371091069</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.55580184577674</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.38439981683491</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.85740014129418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.378959985944502</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.311392312297362</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.053159512286554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.45951394214908</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.46681463450369</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.685357995126672</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.98786702223612</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.896740584886604</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.974854794605193</v>
+        <v>-0.206803504948037</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.28968371091069</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55580184577674</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.38439981683491</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.85740014129418</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.483625757634079</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.521317146651789</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.180986040822017</v>
       </c>
     </row>
   </sheetData>
@@ -3813,86 +3967,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.387735607241932</v>
+        <v>-1.57171550441339</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.86860892196487</v>
+        <v>-1.19591620872299</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94761193933035</v>
+        <v>3.93499345540977</v>
       </c>
       <c r="E2" t="n">
-        <v>4.60725207328858</v>
+        <v>-1.92468748575646</v>
       </c>
       <c r="F2" t="n">
-        <v>0.951759244615506</v>
+        <v>0.505888014260899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.126947417500549</v>
+        <v>0.1225183248083</v>
       </c>
       <c r="H2" t="n">
-        <v>0.110103235455416</v>
+        <v>-0.0871164586643952</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.103832585435368</v>
+        <v>-0.0214518046734052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.387735607241932</v>
+        <v>-1.57171550441339</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.86860892196487</v>
+        <v>-1.19591620872299</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94761193933035</v>
+        <v>3.93499345540977</v>
       </c>
       <c r="E3" t="n">
-        <v>4.60725207328858</v>
+        <v>-1.92468748575646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.951759244615506</v>
+        <v>1.03973898401254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.290479979513208</v>
+        <v>0.366440420461716</v>
       </c>
       <c r="H3" t="n">
-        <v>0.251938910391024</v>
+        <v>-0.280794945566864</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.24528508150328</v>
+        <v>-0.086263735910307</v>
       </c>
     </row>
   </sheetData>
@@ -3914,22 +4068,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -3940,60 +4094,60 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.100894313447494</v>
+        <v>-1.46323997036036</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.2578164185761</v>
+        <v>1.9747888710433</v>
       </c>
       <c r="D2" t="n">
-        <v>2.42174391337418</v>
+        <v>0.348948170144147</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.38330418126682</v>
+        <v>-1.0005687402628</v>
       </c>
       <c r="F2" t="n">
-        <v>6.10022674710662</v>
+        <v>-2.26390366887247</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.384636141034338</v>
+        <v>0.298590678183246</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0729335339885382</v>
+        <v>-0.18916422836173</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0233704851688051</v>
+        <v>-0.0811763525681071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.100894313447494</v>
+        <v>-1.46323997036036</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.2578164185761</v>
+        <v>1.9747888710433</v>
       </c>
       <c r="D3" t="n">
-        <v>2.42174391337418</v>
+        <v>0.745961554512261</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.38330418126682</v>
+        <v>-1.01795339722342</v>
       </c>
       <c r="F3" t="n">
-        <v>6.10022674710662</v>
+        <v>-2.26390366887247</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.591485569475073</v>
+        <v>0.633389363809605</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.231407356656288</v>
+        <v>-0.548546380069881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.166203048672155</v>
+        <v>-0.266939501372323</v>
       </c>
     </row>
   </sheetData>
@@ -4015,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -4033,68 +4187,68 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.64108057204004</v>
+        <v>-0.375573953028131</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.23775429205439</v>
+        <v>-0.88970806286523</v>
       </c>
       <c r="D2" t="n">
-        <v>4.26783571205573</v>
+        <v>3.04034544724506</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.0623559489739</v>
+        <v>-1.42883372050713</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.202837581953792</v>
+        <v>2.01169174407461</v>
       </c>
       <c r="G2" t="n">
-        <v>0.415263923242965</v>
+        <v>0.237448196328077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.184056923207126</v>
+        <v>-1.05064845980506</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00379237341595184</v>
+        <v>-0.094512805274976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.64108057204004</v>
+        <v>-0.375573953028131</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.23775429205439</v>
+        <v>-0.88970806286523</v>
       </c>
       <c r="D3" t="n">
-        <v>4.26783571205573</v>
+        <v>3.04034544724506</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.0623559489739</v>
+        <v>-1.42883372050713</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.498741533511293</v>
+        <v>2.01169174407461</v>
       </c>
       <c r="G3" t="n">
-        <v>1.02868037409921</v>
+        <v>0.418857822323375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.505550435281827</v>
+        <v>-1.05064845980506</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0539103737250997</v>
+        <v>-0.241243239982003</v>
       </c>
     </row>
   </sheetData>
@@ -4116,86 +4270,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.22175778520801</v>
+        <v>-1.14468055627629</v>
       </c>
       <c r="C2" t="n">
-        <v>2.32173740854842</v>
+        <v>-0.48731333041964</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.733573625262658</v>
+        <v>2.06708899089058</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.35697619970275</v>
+        <v>-1.16578830425313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.332987589589104</v>
+        <v>-0.444982255556779</v>
       </c>
       <c r="G2" t="n">
-        <v>0.335636214003266</v>
+        <v>1.13907729509935</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.310115333604464</v>
+        <v>-0.332653212190506</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.115139327020187</v>
+        <v>0.00936471839945454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.22175778520801</v>
+        <v>-1.14468055627629</v>
       </c>
       <c r="C3" t="n">
-        <v>2.32173740854842</v>
+        <v>-0.48731333041964</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.802294936375006</v>
+        <v>2.06708899089058</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.35697619970275</v>
+        <v>-1.16578830425313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.903930997405045</v>
+        <v>-0.885594527832641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.659911206907254</v>
+        <v>1.13907729509935</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.694887909375783</v>
+        <v>-0.657050191522777</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.390527273883173</v>
+        <v>0.0347331403557167</v>
       </c>
     </row>
   </sheetData>
@@ -4217,86 +4371,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.349180983559635</v>
+        <v>-1.31985655337688</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.827244265793027</v>
+        <v>-0.843713601255991</v>
       </c>
       <c r="D2" t="n">
-        <v>2.86389980255917</v>
+        <v>1.99316953390541</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.6523415565383</v>
+        <v>-0.295057753623988</v>
       </c>
       <c r="F2" t="n">
-        <v>1.92433382696482</v>
+        <v>-0.663143485943363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.797178980205934</v>
+        <v>0.941858489864499</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.798760953608052</v>
+        <v>-0.216716080868443</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0753077715276882</v>
+        <v>0.0701960239073133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.349180983559635</v>
+        <v>-1.31985655337688</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.827244265793027</v>
+        <v>-0.843713601255991</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86389980255917</v>
+        <v>1.99316953390541</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.6523415565383</v>
+        <v>-0.513535554889562</v>
       </c>
       <c r="F3" t="n">
-        <v>1.92433382696482</v>
+        <v>-0.749463949857184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797178980205934</v>
+        <v>1.09291619892944</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.798760953608052</v>
+        <v>-0.483292563233352</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.215441158197205</v>
+        <v>0.32098444599362</v>
       </c>
     </row>
   </sheetData>
@@ -4318,86 +4472,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.01321193299145</v>
+        <v>0.393995510083366</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.23124205202512</v>
+        <v>-3.67992418929728</v>
       </c>
       <c r="D2" t="n">
-        <v>2.66665195116435</v>
+        <v>2.27478206013507</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.34877683130149</v>
+        <v>-0.747183937005743</v>
       </c>
       <c r="F2" t="n">
-        <v>1.27848064895592</v>
+        <v>5.36923867581954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0693163910920184</v>
+        <v>2.34527614099122</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0517435131190868</v>
+        <v>-0.479468346785257</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0289245729739338</v>
+        <v>-0.0100316814045723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.01321193299145</v>
+        <v>0.393995510083366</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.23124205202512</v>
+        <v>-3.67992418929728</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66665195116435</v>
+        <v>2.27478206013507</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.34877683130149</v>
+        <v>-0.747183937005743</v>
       </c>
       <c r="F3" t="n">
-        <v>1.27848064895592</v>
+        <v>5.36923867581954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2905653958862</v>
+        <v>2.34527614099122</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.287043109454876</v>
+        <v>-0.603614171404843</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.18052159883267</v>
+        <v>-0.0464367724513772</v>
       </c>
     </row>
   </sheetData>
@@ -4419,86 +4573,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.27335434240477</v>
+        <v>-0.585546224340124</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.793272204420673</v>
+        <v>-2.99501670311091</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01595118656475</v>
+        <v>2.69441359126988</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.555307133170104</v>
+        <v>-0.398136383357192</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.860352322147102</v>
+        <v>2.39099345225467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.521719803307765</v>
+        <v>-0.781449734336193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.353623762807648</v>
+        <v>2.0633494002012</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.102574376658585</v>
+        <v>1.74083427424956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.27335434240477</v>
+        <v>-0.585546224340124</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.793272204420673</v>
+        <v>-2.99501670311091</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01595118656475</v>
+        <v>2.69441359126988</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.665344896806059</v>
+        <v>-0.538785292871184</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.860352322147102</v>
+        <v>2.39099345225467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.866869237021512</v>
+        <v>-0.781449734336193</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01371417397303</v>
+        <v>2.0633494002012</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.390016273067059</v>
+        <v>1.74083427424956</v>
       </c>
     </row>
   </sheetData>
@@ -4520,86 +4674,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.576428421755484</v>
+        <v>-0.41914252171469</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.18027593586049</v>
+        <v>-1.73878983524401</v>
       </c>
       <c r="D2" t="n">
-        <v>2.14468450803623</v>
+        <v>4.78378369202062</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0814256047134</v>
+        <v>-0.342717111785122</v>
       </c>
       <c r="F2" t="n">
-        <v>6.0417520381841</v>
+        <v>-0.795623029909992</v>
       </c>
       <c r="G2" t="n">
-        <v>2.31919966860651</v>
+        <v>0.293459022181951</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0971377962531782</v>
+        <v>0.0790049621350103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0315402835374471</v>
+        <v>-0.00356163225843284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.576428421755484</v>
+        <v>-0.41914252171469</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.18027593586049</v>
+        <v>-1.73878983524401</v>
       </c>
       <c r="D3" t="n">
-        <v>2.14468450803623</v>
+        <v>4.78378369202062</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.0814256047134</v>
+        <v>-0.454431682699318</v>
       </c>
       <c r="F3" t="n">
-        <v>6.0417520381841</v>
+        <v>-0.795623029909992</v>
       </c>
       <c r="G3" t="n">
-        <v>2.31919966860651</v>
+        <v>0.47594960602103</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.27728308009892</v>
+        <v>0.266928522855163</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.16442458746925</v>
+        <v>-0.0146463134586894</v>
       </c>
     </row>
   </sheetData>
@@ -4623,69 +4777,84 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.322900115957783</v>
+        <v>-0.883772528844106</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.54012122553514</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.10002064735347</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.38584547951788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.030701734813745</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.0254769595414238</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.0279603778649996</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0176075923286513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.89479822734643</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.82970165303074</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.545480684287398</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.22018890093536</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.781176238546204</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.26528979458916</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.60039084028127</v>
+        <v>-0.883772528844106</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.54012122553514</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.10002064735347</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.47724219204459</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.130830898410626</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.111646702696192</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.122638201995924</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0798200174363141</v>
       </c>
     </row>
   </sheetData>
@@ -4707,86 +4876,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.20925324968117</v>
+        <v>-1.09239100018661</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.36084748943753</v>
+        <v>-3.79454363676</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52418259624512</v>
+        <v>1.45755143542097</v>
       </c>
       <c r="E2" t="n">
-        <v>5.95968141440353</v>
+        <v>5.56809771635894</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.694796297561214</v>
+        <v>-1.05205540412487</v>
       </c>
       <c r="G2" t="n">
-        <v>2.91873873147724</v>
+        <v>2.58533405129296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0446786192253906</v>
+        <v>-0.203452933757117</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0339470781140987</v>
+        <v>0.043044455847604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.20925324968117</v>
+        <v>-1.09239100018661</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.36084748943753</v>
+        <v>-3.79454363676</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52418259624512</v>
+        <v>1.45755143542097</v>
       </c>
       <c r="E3" t="n">
-        <v>5.95968141440353</v>
+        <v>5.56809771635894</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.838125905471785</v>
+        <v>-1.05205540412487</v>
       </c>
       <c r="G3" t="n">
-        <v>2.91873873147724</v>
+        <v>2.58533405129296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.229778657381873</v>
+        <v>-0.480925352466284</v>
       </c>
       <c r="I3" t="n">
-        <v>0.187991690619551</v>
+        <v>0.150466852596782</v>
       </c>
     </row>
   </sheetData>
@@ -4808,86 +4977,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.327769567216065</v>
+        <v>0.0590383901228119</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.89866756014756</v>
+        <v>-3.52384227055799</v>
       </c>
       <c r="D2" t="n">
-        <v>4.35397128933694</v>
+        <v>3.79029211435203</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.567152151932026</v>
+        <v>-1.39210765870093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.519604483377186</v>
+        <v>6.16708358893937</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.00014038417201</v>
+        <v>-0.465256295439953</v>
       </c>
       <c r="H2" t="n">
-        <v>0.743899843304224</v>
+        <v>0.682689595455265</v>
       </c>
       <c r="I2" t="n">
-        <v>0.141550747710604</v>
+        <v>-1.36024651779426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.327769567216065</v>
+        <v>0.0590383901228119</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.89866756014756</v>
+        <v>-3.52384227055799</v>
       </c>
       <c r="D3" t="n">
-        <v>4.35397128933694</v>
+        <v>3.79029211435203</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.567152151932026</v>
+        <v>-1.39210765870093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.910643640529688</v>
+        <v>6.16708358893937</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.00014038417201</v>
+        <v>-0.557406914479539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.743899843304224</v>
+        <v>0.682689595455265</v>
       </c>
       <c r="I3" t="n">
-        <v>0.373957292895853</v>
+        <v>-1.36024651779426</v>
       </c>
     </row>
   </sheetData>
@@ -4909,86 +5078,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.834618527545833</v>
+        <v>-0.870502005358224</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.20895892985293</v>
+        <v>-1.33681338845774</v>
       </c>
       <c r="D2" t="n">
-        <v>5.65220280901281</v>
+        <v>4.89898262940229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.125209419611303</v>
+        <v>-1.0520061779875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0492606441871057</v>
+        <v>-0.684903837717805</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0211299590932386</v>
+        <v>0.0807888781972285</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00998093056295669</v>
+        <v>0.0870943460504923</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0134697083628707</v>
+        <v>0.0103666471304467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.834618527545833</v>
+        <v>-0.870502005358224</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.20895892985293</v>
+        <v>-1.33681338845774</v>
       </c>
       <c r="D3" t="n">
-        <v>5.65220280901281</v>
+        <v>4.89898262940229</v>
       </c>
       <c r="E3" t="n">
-        <v>0.686289769999884</v>
+        <v>-1.0520061779875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.294106291352544</v>
+        <v>-0.845189352418332</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.173763936695246</v>
+        <v>0.262866547925983</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0874825872953479</v>
+        <v>0.317031128750961</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.118578506560161</v>
+        <v>0.0511584066755128</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5173,95 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.683819325253223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.760184249833721</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.90549858717585</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.10082068407042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.18366597373619</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-4.61744581500538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.352722715786917</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0443040295029309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.683819325253223</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.760184249833721</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.90549858717585</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.10082068407042</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.18366597373619</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-4.61744581500538</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.714945863473017</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.151675818466741</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -5023,86 +5280,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.815164494153854</v>
+        <v>-0.819919658282576</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.433789182131264</v>
+        <v>-3.5038567984676</v>
       </c>
       <c r="D2" t="n">
-        <v>4.71508074539257</v>
+        <v>2.61122074581556</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.11855388968776</v>
+        <v>-0.404562612368546</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.91691439131881</v>
+        <v>2.63180546442011</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.533181633341646</v>
+        <v>-0.784191031015993</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0258794840965014</v>
+        <v>4.46316196655593</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0128235275577468</v>
+        <v>-1.45641299181543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.815164494153854</v>
+        <v>-0.819919658282576</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.433789182131264</v>
+        <v>-3.5038567984676</v>
       </c>
       <c r="D3" t="n">
-        <v>4.71508074539257</v>
+        <v>2.61122074581556</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.11855388968776</v>
+        <v>-0.570504405676419</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.91691439131881</v>
+        <v>2.63180546442011</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.741930974105979</v>
+        <v>-0.880619912952949</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.157123664288507</v>
+        <v>4.46316196655593</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0846188488627661</v>
+        <v>-1.45641299181543</v>
       </c>
     </row>
   </sheetData>
@@ -5124,25 +5381,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -5150,60 +5407,60 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.705667855187127</v>
+        <v>-0.313232580963968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.921841621889353</v>
+        <v>-5.95181564195105</v>
       </c>
       <c r="D2" t="n">
-        <v>1.76549329405167</v>
+        <v>1.95599215115925</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.15201067779389</v>
+        <v>-1.21025174927383</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73794800987504</v>
+        <v>7.37975959316255</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.95415151043066</v>
+        <v>2.26402070039617</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.253806910562428</v>
+        <v>-0.198133372671709</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0369999981973666</v>
+        <v>-0.165061084167824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.705667855187127</v>
+        <v>-0.313232580963968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.921841621889353</v>
+        <v>-5.95181564195105</v>
       </c>
       <c r="D3" t="n">
-        <v>1.76549329405167</v>
+        <v>1.95599215115925</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.15201067779389</v>
+        <v>-1.21025174927383</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73794800987504</v>
+        <v>7.37975959316255</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.95415151043066</v>
+        <v>2.26402070039617</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.770771518173091</v>
+        <v>-0.43418393665206</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.184246510018252</v>
+        <v>-0.45163383115935</v>
       </c>
     </row>
   </sheetData>
@@ -5225,86 +5482,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.838917225474791</v>
+        <v>-1.40315909044885</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.74816112086553</v>
+        <v>-2.21899108090047</v>
       </c>
       <c r="D2" t="n">
-        <v>2.60878921625072</v>
+        <v>4.89279484830875</v>
       </c>
       <c r="E2" t="n">
-        <v>2.94978801784514</v>
+        <v>-0.776601810768788</v>
       </c>
       <c r="F2" t="n">
-        <v>4.75723412551177</v>
+        <v>0.509803522188188</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.07350044060898</v>
+        <v>0.0614867163155121</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.219145498390521</v>
+        <v>0.0285350701318252</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.062495131837033</v>
+        <v>-0.00208728989953136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.838917225474791</v>
+        <v>-1.40315909044885</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.74816112086553</v>
+        <v>-2.21899108090047</v>
       </c>
       <c r="D3" t="n">
-        <v>2.60878921625072</v>
+        <v>4.89279484830875</v>
       </c>
       <c r="E3" t="n">
-        <v>2.94978801784514</v>
+        <v>-0.854056844549447</v>
       </c>
       <c r="F3" t="n">
-        <v>4.75723412551177</v>
+        <v>1.06260097768777</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.07350044060898</v>
+        <v>0.244260148131105</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.457383428186949</v>
+        <v>0.12906304922601</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.213339049449539</v>
+        <v>-0.00990106815533594</v>
       </c>
     </row>
   </sheetData>
@@ -5326,86 +5583,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.34799884913032</v>
+        <v>-0.102736431899294</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.97321862480247</v>
+        <v>-2.38114104199714</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97079716627281</v>
+        <v>3.17756499185034</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.40487683057134</v>
+        <v>-0.649555773495589</v>
       </c>
       <c r="F2" t="n">
-        <v>10.4557477746374</v>
+        <v>3.08535402231589</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56578753412693</v>
+        <v>-0.340984740374064</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.54521458593927</v>
+        <v>1.22513560048225</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.150138794815362</v>
+        <v>-0.0687323926446168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.34799884913032</v>
+        <v>-0.102736431899294</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.97321862480247</v>
+        <v>-2.38114104199714</v>
       </c>
       <c r="D3" t="n">
-        <v>1.97079716627281</v>
+        <v>3.17756499185034</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.40487683057134</v>
+        <v>-0.649555773495589</v>
       </c>
       <c r="F3" t="n">
-        <v>10.4557477746374</v>
+        <v>3.08535402231589</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56578753412693</v>
+        <v>-0.487835423484089</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.54521458593927</v>
+        <v>1.22513560048225</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.392220354872725</v>
+        <v>-0.196328289154107</v>
       </c>
     </row>
   </sheetData>
@@ -5427,86 +5684,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.37966694635134</v>
+        <v>-0.884527066673374</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.91106625384213</v>
+        <v>-5.10953518104382</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86078540883038</v>
+        <v>2.00415444083367</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.14969737432268</v>
+        <v>-1.89569766412525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.172807941789403</v>
+        <v>6.6241231043174</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0558105798220259</v>
+        <v>-0.929964849913527</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0350788827709035</v>
+        <v>2.24276174787774</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0125307130233732</v>
+        <v>-0.144098720795187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.37966694635134</v>
+        <v>-0.884527066673374</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.91106625384213</v>
+        <v>-5.10953518104382</v>
       </c>
       <c r="D3" t="n">
-        <v>4.86078540883038</v>
+        <v>2.00415444083367</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.14969737432268</v>
+        <v>-1.89569766412525</v>
       </c>
       <c r="F3" t="n">
-        <v>0.858958036671186</v>
+        <v>6.6241231043174</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.363027886996293</v>
+        <v>-0.929964849913527</v>
       </c>
       <c r="H3" t="n">
-        <v>0.229889167066331</v>
+        <v>2.24276174787774</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0936838378476915</v>
+        <v>-0.43422122343027</v>
       </c>
     </row>
   </sheetData>
@@ -5528,86 +5785,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00138116121845221</v>
+        <v>0.526175806700405</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.14373289307809</v>
+        <v>-3.63368597764542</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41908541650167</v>
+        <v>2.21973275115582</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.975673864263471</v>
+        <v>-1.21626450866685</v>
       </c>
       <c r="F2" t="n">
-        <v>3.46304205447118</v>
+        <v>5.24084022812811</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.234146158082015</v>
+        <v>-0.634692596860817</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.253543442193252</v>
+        <v>2.08601131953648</v>
       </c>
       <c r="I2" t="n">
-        <v>1.03050347586894</v>
+        <v>-0.258510641568068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00138116121845221</v>
+        <v>0.526175806700405</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.14373289307809</v>
+        <v>-3.63368597764542</v>
       </c>
       <c r="D3" t="n">
-        <v>3.41908541650167</v>
+        <v>2.21973275115582</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.975673864263471</v>
+        <v>-1.21626450866685</v>
       </c>
       <c r="F3" t="n">
-        <v>3.46304205447118</v>
+        <v>5.24084022812811</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.394525236497231</v>
+        <v>-0.634692596860817</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.440509442471969</v>
+        <v>2.08601131953648</v>
       </c>
       <c r="I3" t="n">
-        <v>1.03050347586894</v>
+        <v>-0.469266229108699</v>
       </c>
     </row>
   </sheetData>
@@ -5629,86 +5886,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.856195613606207</v>
+        <v>-1.26600433278907</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.17282382098143</v>
+        <v>-5.9252023049843</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07389337844371</v>
+        <v>3.30096643598717</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.97610772243376</v>
+        <v>-0.666817988563474</v>
       </c>
       <c r="F2" t="n">
-        <v>8.52924596127374</v>
+        <v>9.99105484501567</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.343585092770765</v>
+        <v>-1.11119317481829</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52708301260907</v>
+        <v>-0.00728407160351558</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.433566688999206</v>
+        <v>0.000258355533065571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.856195613606207</v>
+        <v>-1.26600433278907</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.17282382098143</v>
+        <v>-5.9252023049843</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07389337844371</v>
+        <v>3.30096643598717</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.97610772243376</v>
+        <v>-0.795147095884035</v>
       </c>
       <c r="F3" t="n">
-        <v>8.52924596127374</v>
+        <v>9.99105484501567</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.62380939459507</v>
+        <v>-1.11119317481829</v>
       </c>
       <c r="H3" t="n">
-        <v>2.52708301260907</v>
+        <v>-0.0410339307378207</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.88496672929587</v>
+        <v>0.00145839199909779</v>
       </c>
     </row>
   </sheetData>
@@ -5730,86 +5987,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.99161371965378</v>
+        <v>0.182346194142596</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.07371494658031</v>
+        <v>-3.8334088361479</v>
       </c>
       <c r="D2" t="n">
-        <v>3.21141068442971</v>
+        <v>3.63793211006298</v>
       </c>
       <c r="E2" t="n">
-        <v>4.48163004555317</v>
+        <v>-0.210859516153576</v>
       </c>
       <c r="F2" t="n">
-        <v>2.20041950352514</v>
+        <v>4.38020563417097</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.125568230417575</v>
+        <v>-0.243348605376194</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.037393999173271</v>
+        <v>2.05713603905493</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0337091401696386</v>
+        <v>-1.46703139529192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.99161371965378</v>
+        <v>0.182346194142596</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.07371494658031</v>
+        <v>-3.8334088361479</v>
       </c>
       <c r="D3" t="n">
-        <v>3.21141068442971</v>
+        <v>3.63793211006298</v>
       </c>
       <c r="E3" t="n">
-        <v>4.48163004555317</v>
+        <v>-0.349427876781472</v>
       </c>
       <c r="F3" t="n">
-        <v>2.20041950352514</v>
+        <v>4.38020563417097</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.622607340751986</v>
+        <v>-0.399499041003895</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.210926675096861</v>
+        <v>2.05713603905493</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.19546874774644</v>
+        <v>-1.46703139529192</v>
       </c>
     </row>
   </sheetData>
@@ -5831,86 +6088,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510350657454865</v>
+        <v>-1.03643065538728</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.35115560076744</v>
+        <v>-2.81266519831557</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95364912429014</v>
+        <v>2.37838681894387</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.27470609947429</v>
+        <v>-2.40186986917143</v>
       </c>
       <c r="F2" t="n">
-        <v>6.44910507717325</v>
+        <v>4.76370390226761</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.773969829621144</v>
+        <v>1.61121420782554</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32626671448392</v>
+        <v>-3.53237101612314</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0324150686772484</v>
+        <v>0.163662788418111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.510350657454865</v>
+        <v>-1.03643065538728</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.35115560076744</v>
+        <v>-2.81266519831557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95364912429014</v>
+        <v>2.37838681894387</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.27470609947429</v>
+        <v>-2.40186986917143</v>
       </c>
       <c r="F3" t="n">
-        <v>6.44910507717325</v>
+        <v>4.76370390226761</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.773969829621144</v>
+        <v>1.61121420782554</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32626671448392</v>
+        <v>-3.53237101612314</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.11610865940918</v>
+        <v>0.449120422450403</v>
       </c>
     </row>
   </sheetData>
@@ -5932,16 +6189,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -5950,68 +6207,68 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.17023746342541</v>
+        <v>-0.828844400286702</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.76226196568122</v>
+        <v>-0.976141977503731</v>
       </c>
       <c r="D2" t="n">
-        <v>3.24614184782668</v>
+        <v>4.38142633739233</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.43682274206625</v>
+        <v>-0.836936822741492</v>
       </c>
       <c r="F2" t="n">
-        <v>9.8032775117454</v>
+        <v>0.0997347491565494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.101278184757614</v>
+        <v>0.0819379458611759</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0840374833909613</v>
+        <v>0.147674658170875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0371010838061271</v>
+        <v>-0.000171253972537255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.17023746342541</v>
+        <v>-0.828844400286702</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.76226196568122</v>
+        <v>-0.976141977503731</v>
       </c>
       <c r="D3" t="n">
-        <v>3.24614184782668</v>
+        <v>4.38142633739233</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.43682274206625</v>
+        <v>-0.836936822741492</v>
       </c>
       <c r="F3" t="n">
-        <v>9.8032775117454</v>
+        <v>0.292330539531252</v>
       </c>
       <c r="G3" t="n">
-        <v>0.442663017718676</v>
+        <v>0.257164885127701</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.382382704604312</v>
+        <v>0.475220513528855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.240042488661555</v>
+        <v>-0.000824317450331537</v>
       </c>
     </row>
   </sheetData>
@@ -6033,86 +6290,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.972134555858454</v>
+        <v>-0.566668418700124</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.19470255051635</v>
+        <v>-4.52894564088203</v>
       </c>
       <c r="D2" t="n">
-        <v>2.72528326568017</v>
+        <v>3.17269088387574</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.34219484432488</v>
+        <v>-1.00436237401945</v>
       </c>
       <c r="F2" t="n">
-        <v>3.63268802663665</v>
+        <v>7.346791068838</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76345655757424</v>
+        <v>0.409586391183975</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.31165754075894</v>
+        <v>0.799678292091859</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0492738592130705</v>
+        <v>-0.0894347138535052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.972134555858454</v>
+        <v>-0.566668418700124</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.19470255051635</v>
+        <v>-4.52894564088203</v>
       </c>
       <c r="D3" t="n">
-        <v>2.72528326568017</v>
+        <v>3.17269088387574</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.34219484432488</v>
+        <v>-1.00436237401945</v>
       </c>
       <c r="F3" t="n">
-        <v>3.63268802663665</v>
+        <v>7.346791068838</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76345655757424</v>
+        <v>0.58295208344977</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.31165754075894</v>
+        <v>0.870492403702119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.174328184544856</v>
+        <v>-0.273161307193375</v>
       </c>
     </row>
   </sheetData>
@@ -6134,86 +6391,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.836779495802544</v>
+        <v>1.93639373379911</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.49922781114313</v>
+        <v>-1.28524792867984</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7376356240218</v>
+        <v>2.93111977799089</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.737365720982272</v>
+        <v>3.96197831081796</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22217051478405</v>
+        <v>-0.546114869798515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0469163730999111</v>
+        <v>-0.0585656444668922</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0362996872676419</v>
+        <v>-0.0256418044481933</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0320095343003384</v>
+        <v>-0.00681632771135534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.836779495802544</v>
+        <v>1.93639373379911</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.49922781114313</v>
+        <v>-1.28524792867984</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7376356240218</v>
+        <v>2.93111977799089</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.737365720982272</v>
+        <v>3.96197831081796</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22217051478405</v>
+        <v>-0.546114869798515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.224148712474725</v>
+        <v>-0.155897306334132</v>
       </c>
       <c r="H3" t="n">
-        <v>0.194332544240686</v>
+        <v>-0.0908804255228696</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.184309597622109</v>
+        <v>-0.0277799870588481</v>
       </c>
     </row>
   </sheetData>
@@ -6235,86 +6492,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.481114867736468</v>
+        <v>-0.147507946246391</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.98884117219961</v>
+        <v>-3.1441820296582</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87919226350195</v>
+        <v>4.13787957590704</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.30965299838314</v>
+        <v>2.30440577959538</v>
       </c>
       <c r="F2" t="n">
-        <v>8.20858519860711</v>
+        <v>-0.564761961083661</v>
       </c>
       <c r="G2" t="n">
-        <v>0.966540443396459</v>
+        <v>0.672572030329738</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01392702444402</v>
+        <v>1.94534148326577</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0210898082469259</v>
+        <v>-0.0724604658944195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.481114867736468</v>
+        <v>-0.147507946246391</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.98884117219961</v>
+        <v>-3.1441820296582</v>
       </c>
       <c r="D3" t="n">
-        <v>2.87919226350195</v>
+        <v>4.13787957590704</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.30965299838314</v>
+        <v>2.30440577959538</v>
       </c>
       <c r="F3" t="n">
-        <v>8.20858519860711</v>
+        <v>-0.631711280100362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.966540443396459</v>
+        <v>0.672572030329738</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01392702444402</v>
+        <v>1.94534148326577</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0768709299812291</v>
+        <v>-0.224757480194297</v>
       </c>
     </row>
   </sheetData>
@@ -6336,68 +6593,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2.11106485700914</v>
+        <v>-0.33569401727345</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.1584588092752</v>
+        <v>-4.43925307214891</v>
       </c>
       <c r="D2" t="n">
-        <v>2.96001991424551</v>
+        <v>3.73633375498216</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.159020589436994</v>
+        <v>-0.22578682120312</v>
       </c>
       <c r="F2" t="n">
-        <v>4.86402500430155</v>
+        <v>5.99190787056012</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.373456134152023</v>
+        <v>1.71386622350163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.154078637925234</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0259724791635504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>2.11106485700914</v>
+        <v>-0.33569401727345</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.1584588092752</v>
+        <v>-4.43925307214891</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96001991424551</v>
+        <v>3.73633375498216</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.262292768429188</v>
+        <v>-0.398381003504234</v>
       </c>
       <c r="F3" t="n">
-        <v>4.86402500430155</v>
+        <v>5.99190787056012</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.373456134152023</v>
+        <v>1.71386622350163</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.390932243331499</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0926581219521128</v>
       </c>
     </row>
   </sheetData>
@@ -6419,16 +6694,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -6437,68 +6712,68 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0277921810458715</v>
+        <v>-1.2024919246449</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.934927708807</v>
+        <v>-2.00088854436226</v>
       </c>
       <c r="D2" t="n">
-        <v>3.76050174607713</v>
+        <v>3.5983289589257</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.288848334458898</v>
+        <v>0.676692039658414</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7761020954479</v>
+        <v>1.76841478099953</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.596343390656997</v>
+        <v>-1.94144107082476</v>
       </c>
       <c r="H2" t="n">
-        <v>0.711328712184911</v>
+        <v>-0.104892572498765</v>
       </c>
       <c r="I2" t="n">
-        <v>1.89147496148482</v>
+        <v>0.0305160931881409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0277921810458715</v>
+        <v>-1.2024919246449</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.934927708807</v>
+        <v>-2.00088854436226</v>
       </c>
       <c r="D3" t="n">
-        <v>3.76050174607713</v>
+        <v>3.5983289589257</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.449931838142982</v>
+        <v>0.788246462228325</v>
       </c>
       <c r="F3" t="n">
-        <v>2.7761020954479</v>
+        <v>1.76841478099953</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.596343390656997</v>
+        <v>-1.94144107082476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.711328712184911</v>
+        <v>-0.292688494922592</v>
       </c>
       <c r="I3" t="n">
-        <v>1.89147496148482</v>
+        <v>0.131006866413359</v>
       </c>
     </row>
   </sheetData>
@@ -6520,86 +6795,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.186873420415451</v>
+        <v>-0.0296494013473815</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.68041532655982</v>
+        <v>-1.10539891283764</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06016310834964</v>
+        <v>4.93357225894511</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.53009935424016</v>
+        <v>-0.425056102404367</v>
       </c>
       <c r="F2" t="n">
-        <v>8.43797922302449</v>
+        <v>-0.851225390693376</v>
       </c>
       <c r="G2" t="n">
-        <v>1.70987584386265</v>
+        <v>0.157351092027299</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.123345061786871</v>
+        <v>-0.0660250132314128</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0108643204642132</v>
+        <v>-0.00173588480583059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.186873420415451</v>
+        <v>-0.0296494013473815</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.68041532655982</v>
+        <v>-1.10539891283764</v>
       </c>
       <c r="D3" t="n">
-        <v>4.06016310834964</v>
+        <v>4.93357225894511</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.53009935424016</v>
+        <v>-0.480991469627438</v>
       </c>
       <c r="F3" t="n">
-        <v>8.43797922302449</v>
+        <v>-0.851225390693376</v>
       </c>
       <c r="G3" t="n">
-        <v>1.70987584386265</v>
+        <v>0.318591714157023</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.401772299823854</v>
+        <v>-0.24380861154652</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0575679551421813</v>
+        <v>-0.007323008184637</v>
       </c>
     </row>
   </sheetData>
@@ -6621,86 +6896,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.29416301535055</v>
+        <v>1.70129822002414</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.01683379164914</v>
+        <v>-0.28893756318638</v>
       </c>
       <c r="D2" t="n">
-        <v>3.9950139624772</v>
+        <v>2.69893023505521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.652755798120239</v>
+        <v>-1.16830479006304</v>
       </c>
       <c r="F2" t="n">
-        <v>1.78579747965128</v>
+        <v>2.67487608013998</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.5544705343666</v>
+        <v>-0.434152299340331</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.30662209657341</v>
+        <v>0.314793128929518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.188740589698232</v>
+        <v>-1.50800011387193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.29416301535055</v>
+        <v>1.70129822002414</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.01683379164914</v>
+        <v>-0.28893756318638</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9950139624772</v>
+        <v>2.69893023505521</v>
       </c>
       <c r="E3" t="n">
-        <v>0.742014875919502</v>
+        <v>-1.16830479006304</v>
       </c>
       <c r="F3" t="n">
-        <v>1.78579747965128</v>
+        <v>2.67487608013998</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.5544705343666</v>
+        <v>-0.434152299340331</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.543290839098253</v>
+        <v>0.373546852504519</v>
       </c>
       <c r="I3" t="n">
-        <v>0.637770247939876</v>
+        <v>-1.50800011387193</v>
       </c>
     </row>
   </sheetData>
@@ -6722,19 +6997,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -6748,60 +7023,60 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.108455220574726</v>
+        <v>-1.56891281341638</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.04768099600825</v>
+        <v>-3.64009850590182</v>
       </c>
       <c r="D2" t="n">
-        <v>4.88445801134759</v>
+        <v>3.04368756152766</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.921675114113544</v>
+        <v>-0.665525030556349</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.978244888499311</v>
+        <v>6.50332219400194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.182003458337188</v>
+        <v>-0.391420586603171</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0410350469646659</v>
+        <v>-0.392969704807915</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0875998280535056</v>
+        <v>0.037630168991615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.108455220574726</v>
+        <v>-1.56891281341638</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.04768099600825</v>
+        <v>-3.64009850590182</v>
       </c>
       <c r="D3" t="n">
-        <v>4.88445801134759</v>
+        <v>3.04368756152766</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.921675114113544</v>
+        <v>-0.831329273179952</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.978244888499311</v>
+        <v>6.50332219400194</v>
       </c>
       <c r="G3" t="n">
-        <v>0.365218750283376</v>
+        <v>-0.660634308814396</v>
       </c>
       <c r="H3" t="n">
-        <v>0.170160312899641</v>
+        <v>-0.853678517970827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.359158682588088</v>
+        <v>0.166338131540825</v>
       </c>
     </row>
   </sheetData>
@@ -6823,86 +7098,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39901778304961</v>
+        <v>-1.29115193344471</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.8256801075347</v>
+        <v>-1.1848766401136</v>
       </c>
       <c r="D2" t="n">
-        <v>3.48075224253406</v>
+        <v>2.78849304808625</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.581784390380743</v>
+        <v>-0.91499946347354</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25671466427432</v>
+        <v>-1.17888429645769</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28205596174623</v>
+        <v>0.860137857697327</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.25531178326459</v>
+        <v>1.03043947596425</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0611969091771874</v>
+        <v>0.0278153870037936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39901778304961</v>
+        <v>-1.29115193344471</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.8256801075347</v>
+        <v>-1.1848766401136</v>
       </c>
       <c r="D3" t="n">
-        <v>3.48075224253406</v>
+        <v>2.78849304808625</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.581784390380743</v>
+        <v>-0.91499946347354</v>
       </c>
       <c r="F3" t="n">
-        <v>5.25671466427432</v>
+        <v>-1.17888429645769</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28205596174623</v>
+        <v>0.951071043532775</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.25531178326459</v>
+        <v>1.13444652742314</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.18557059809848</v>
+        <v>0.126175071724755</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +7193,95 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.00171596348577</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.41599333052259</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.579813841513</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.00592532985856</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.356737913093152</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.36816665759345</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.4339755681848</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.111945749262031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.00171596348577</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.41599333052259</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.579813841513</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.00592532985856</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.600688418557665</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.36816665759345</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.4339755681848</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.309700820382632</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -6937,86 +7300,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.68308847374887</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.77933693287096</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.41110501287234</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.696930857798163</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.6465989155944</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.71131317192169</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.028966815293193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.018821690683791</v>
+        <v>-0.570675176816273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.68308847374887</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.77933693287096</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.41110501287234</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.909280742094915</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.6465989155944</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.71131317192169</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.16989288244641</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.115854457058294</v>
+        <v>-0.420649229813012</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.85165608400657</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.04910809725966</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.49130547255171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.02089991928894</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.775295203833381</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.97137299394323</v>
       </c>
     </row>
   </sheetData>
@@ -7038,86 +7386,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.83302387911564</v>
+        <v>-0.646694268554313</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.10858372272615</v>
+        <v>-2.7718500337865</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08236084173825</v>
+        <v>2.31141601105778</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.469621500042337</v>
+        <v>-0.703904178143605</v>
       </c>
       <c r="F2" t="n">
-        <v>1.10591977691277</v>
+        <v>4.02970024363188</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.43262995248477</v>
+        <v>0.0763077010080989</v>
       </c>
       <c r="H2" t="n">
-        <v>2.67135688581458</v>
+        <v>-0.000763093451129602</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.203105753758301</v>
+        <v>-0.000204997706310126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.83302387911564</v>
+        <v>-0.646694268554313</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.10858372272615</v>
+        <v>-2.7718500337865</v>
       </c>
       <c r="D3" t="n">
-        <v>4.08236084173825</v>
+        <v>2.31141601105778</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.632084207882653</v>
+        <v>-0.703904178143605</v>
       </c>
       <c r="F3" t="n">
-        <v>1.50009695132492</v>
+        <v>4.02970024363188</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.43262995248477</v>
+        <v>0.232812692346226</v>
       </c>
       <c r="H3" t="n">
-        <v>2.67135688581458</v>
+        <v>-0.00360928339346046</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.462681506370055</v>
+        <v>-0.000969578924463613</v>
       </c>
     </row>
   </sheetData>
@@ -7139,86 +7487,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.567218339703942</v>
+        <v>0.640702784479171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.168301940923697</v>
+        <v>-2.4886587798284</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87105351081688</v>
+        <v>3.33457763972059</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.48604289370957</v>
+        <v>-1.16916617634857</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.38916734345901</v>
+        <v>3.76944674957746</v>
       </c>
       <c r="G2" t="n">
-        <v>1.05465430820762</v>
+        <v>1.74197025267814</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.79710236347904</v>
+        <v>-1.76153720107852</v>
       </c>
       <c r="I2" t="n">
-        <v>0.103978123669438</v>
+        <v>0.0243649225158158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.567218339703942</v>
+        <v>0.640702784479171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168301940923697</v>
+        <v>-2.4886587798284</v>
       </c>
       <c r="D3" t="n">
-        <v>2.87105351081688</v>
+        <v>3.33457763972059</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.48604289370957</v>
+        <v>-1.16916617634857</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.38916734345901</v>
+        <v>3.76944674957746</v>
       </c>
       <c r="G3" t="n">
-        <v>1.05465430820762</v>
+        <v>1.74197025267814</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.79710236347904</v>
+        <v>-1.76153720107852</v>
       </c>
       <c r="I3" t="n">
-        <v>0.343582387015622</v>
+        <v>0.0847859117630954</v>
       </c>
     </row>
   </sheetData>
@@ -7240,86 +7588,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.512174872251115</v>
+        <v>-0.940432883310807</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.02718425078693</v>
+        <v>-1.59079712375959</v>
       </c>
       <c r="D2" t="n">
-        <v>1.99405702530815</v>
+        <v>3.44199689099303</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.79920445975515</v>
+        <v>-0.21906560464656</v>
       </c>
       <c r="F2" t="n">
-        <v>2.50590304656649</v>
+        <v>0.814991125022966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.766235148435042</v>
+        <v>-0.156348842482452</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0149459955324514</v>
+        <v>0.0805590111312188</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0188762385103002</v>
+        <v>-0.094626740195965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.512174872251115</v>
+        <v>-0.940432883310808</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.02718425078693</v>
+        <v>-1.59079712375959</v>
       </c>
       <c r="D3" t="n">
-        <v>1.99405702530815</v>
+        <v>3.44199689099303</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.79920445975515</v>
+        <v>-0.428145721333006</v>
       </c>
       <c r="F3" t="n">
-        <v>2.50590304656649</v>
+        <v>0.970125669185994</v>
       </c>
       <c r="G3" t="n">
-        <v>0.766235148435042</v>
+        <v>-0.385886449768751</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0695257439478003</v>
+        <v>0.23778815712173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0884039565174752</v>
+        <v>-0.367253353292365</v>
       </c>
     </row>
   </sheetData>
@@ -7341,86 +7689,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.778691023355114</v>
+        <v>-0.957866419079861</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.2387669810908</v>
+        <v>-4.29642280426257</v>
       </c>
       <c r="D2" t="n">
-        <v>3.24971526067058</v>
+        <v>2.82109991174497</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.53262837182509</v>
+        <v>3.78945358920774</v>
       </c>
       <c r="F2" t="n">
-        <v>4.10008708111257</v>
+        <v>-1.69576505459936</v>
       </c>
       <c r="G2" t="n">
-        <v>2.00688481666628</v>
+        <v>2.16718361438633</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.69342849857827</v>
+        <v>1.43550113836335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0264845548276418</v>
+        <v>-0.112444515178519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.778691023355114</v>
+        <v>-0.957866419079861</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.2387669810908</v>
+        <v>-4.29642280426257</v>
       </c>
       <c r="D3" t="n">
-        <v>3.24971526067058</v>
+        <v>2.82109991174497</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.53262837182509</v>
+        <v>3.78945358920774</v>
       </c>
       <c r="F3" t="n">
-        <v>4.10008708111257</v>
+        <v>-1.69576505459936</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00688481666628</v>
+        <v>2.16718361438633</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.69342849857827</v>
+        <v>1.43550113836335</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0914594264160132</v>
+        <v>-0.311885351977348</v>
       </c>
     </row>
   </sheetData>
@@ -7442,86 +7790,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.750932238779059</v>
+        <v>-1.18228918011543</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.7653747465321</v>
+        <v>-0.773998328448886</v>
       </c>
       <c r="D2" t="n">
-        <v>3.32193518171638</v>
+        <v>3.45965484469875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.985693119609926</v>
+        <v>-1.28220381922166</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.208999656848935</v>
+        <v>-0.925026042697685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.057892651141704</v>
+        <v>1.07655191124576</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0610208621348784</v>
+        <v>0.301662290411346</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0492378508211522</v>
+        <v>-0.0808534398162315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.750932238779059</v>
+        <v>-1.18228918011543</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.7653747465321</v>
+        <v>-0.773998328448886</v>
       </c>
       <c r="D3" t="n">
-        <v>3.32193518171638</v>
+        <v>3.45965484469875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.985693119609926</v>
+        <v>-1.28220381922166</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.429179327183728</v>
+        <v>-0.925026042697685</v>
       </c>
       <c r="G3" t="n">
-        <v>0.259120857944392</v>
+        <v>1.07655191124576</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.291384203067354</v>
+        <v>0.648724838208083</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.304210111027682</v>
+        <v>-0.267982454045615</v>
       </c>
     </row>
   </sheetData>
@@ -7543,86 +7891,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.880866690334385</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-4.24397381360996</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71873901325019</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.17556860597419</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1.42113168519483</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.74658997906735</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.51881924638717</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.164539561271954</v>
+        <v>-1.01773590863729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.880866690334385</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.24397381360996</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.71873901325019</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.17556860597419</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.42113168519483</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.74658997906735</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.51881924638717</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.403691492647432</v>
+        <v>-1.71594712518912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.89815449313439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.4567382968082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.79694284188387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.14145579391527</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.08919837111604</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.31526244710994</v>
       </c>
     </row>
   </sheetData>
@@ -7644,77 +7977,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.62411314678469</v>
+        <v>-1.69211798050084</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.22421459094821</v>
+        <v>-2.98885689150306</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16769573777645</v>
+        <v>4.49437720860825</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.58933928447104</v>
+        <v>-0.550902818210202</v>
       </c>
       <c r="F2" t="n">
-        <v>7.11963267676705</v>
+        <v>2.3207346869855</v>
       </c>
       <c r="G2" t="n">
-        <v>2.25186250880551</v>
+        <v>0.532685819181154</v>
       </c>
       <c r="H2" t="n">
-        <v>0.222705068312045</v>
+        <v>0.219199305037683</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.064969702619959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.62411314678469</v>
+        <v>-1.69211798050084</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.22421459094821</v>
+        <v>-2.98885689150306</v>
       </c>
       <c r="D3" t="n">
-        <v>1.16769573777645</v>
+        <v>4.49437720860825</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.58933928447104</v>
+        <v>-0.799670980493388</v>
       </c>
       <c r="F3" t="n">
-        <v>7.11963267676705</v>
+        <v>2.3207346869855</v>
       </c>
       <c r="G3" t="n">
-        <v>2.25186250880551</v>
+        <v>0.93455741566885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46000313036031</v>
+        <v>0.541431759152652</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.248297948657297</v>
       </c>
     </row>
   </sheetData>
@@ -7736,19 +8078,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -7756,57 +8098,66 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.28889767619249</v>
+        <v>0.0487033532627691</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.248042426096141</v>
+        <v>-0.256936291646735</v>
       </c>
       <c r="D2" t="n">
-        <v>2.85394403217981</v>
+        <v>2.26350726091197</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.24295800850442</v>
+        <v>-1.73595335855575</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.6007510000925</v>
+        <v>2.32697649352203</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.456176605011174</v>
+        <v>-1.20386177457598</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48804080539875</v>
+        <v>-0.0779301349509961</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0356750865987828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.28889767619249</v>
+        <v>0.0487033532627691</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.248042426096141</v>
+        <v>-0.256936291646735</v>
       </c>
       <c r="D3" t="n">
-        <v>2.85394403217981</v>
+        <v>2.26350726091197</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.24295800850442</v>
+        <v>-1.73595335855575</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.6007510000925</v>
+        <v>2.32697649352203</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.697587264213676</v>
+        <v>-1.20386177457598</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48804080539875</v>
+        <v>-0.216431923671633</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.121737463276397</v>
       </c>
     </row>
   </sheetData>
@@ -7828,374 +8179,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.17874381440152</v>
+        <v>-0.656606224719339</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.45351020543051</v>
+        <v>-2.06496710076347</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69331470306122</v>
+        <v>3.26866743688493</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.991954322611394</v>
+        <v>1.42058977915237</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.616735302017718</v>
+        <v>-1.05559176199098</v>
       </c>
       <c r="G2" t="n">
-        <v>1.03863205796026</v>
+        <v>0.798054518457523</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38000051793486</v>
+        <v>0.0464051360572023</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0295634299139276</v>
+        <v>0.0399058606922997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.17874381440152</v>
+        <v>-0.656606224719339</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.45351020543051</v>
+        <v>-2.06496710076347</v>
       </c>
       <c r="D3" t="n">
-        <v>2.69331470306122</v>
+        <v>3.26866743688493</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.991954322611394</v>
+        <v>1.42058977915237</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.800028633246515</v>
+        <v>-1.05559176199098</v>
       </c>
       <c r="G3" t="n">
-        <v>1.03863205796026</v>
+        <v>0.872052469281982</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38000051793486</v>
+        <v>0.168743393513609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.141863515279099</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.905592044769712</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1.71290425790239</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.03524651000855</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-2.54990039538285</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.62297541481466</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.827735184932821</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.932898137523859</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-1.42917422451716</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.60322972451039</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.18326398369475</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.35803699437141</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1.52280412371129</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.35695230436632</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.178973915306271</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0428932450993775</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0275050893527355</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1.60322972451039</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.18326398369475</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.35803699437141</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.52280412371129</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.94487478855035</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.540446216839104</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.374040536908967</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.25385148470884</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0408043943697969</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.434192276961473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83122209544313</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1.96058237965217</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.832598061233153</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.19183542521287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.260185827623604</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.0248625519299974</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0408043943697969</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.434192276961473</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.83122209544313</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.96058237965218</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.832598061233153</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.19183542521287</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.678265494046486</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.135312011096479</v>
+        <v>0.145729451931779</v>
       </c>
     </row>
   </sheetData>
@@ -8217,77 +8280,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.499827929621393</v>
+        <v>-0.276378838010436</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.91252500082721</v>
+        <v>-1.611424184897</v>
       </c>
       <c r="D2" t="n">
-        <v>2.90013483211491</v>
+        <v>4.31865688083353</v>
       </c>
       <c r="E2" t="n">
-        <v>1.44118847900678</v>
+        <v>-1.44609859073365</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.952530149253631</v>
+        <v>2.64174803705476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.245495221142976</v>
+        <v>-0.482144779922915</v>
       </c>
       <c r="H2" t="n">
-        <v>0.447459676003119</v>
+        <v>-0.945791299937404</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.10160270869779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.499827929621393</v>
+        <v>-0.276378838010436</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.91252500082721</v>
+        <v>-1.611424184897</v>
       </c>
       <c r="D3" t="n">
-        <v>2.90013483211491</v>
+        <v>4.31865688083353</v>
       </c>
       <c r="E3" t="n">
-        <v>1.44118847900678</v>
+        <v>-1.44609859073365</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.952530149253631</v>
+        <v>2.64174803705476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.465085454337771</v>
+        <v>-0.543440651820445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.696425088947319</v>
+        <v>-0.945791299937404</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.320989677458511</v>
       </c>
     </row>
   </sheetData>
